--- a/tests/fixtures/template_exemplo.xlsx
+++ b/tests/fixtures/template_exemplo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,40 +424,45 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>DOCUMENTO</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>REVISÃO</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>TÍTULO</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>ARQUIVO</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>FORMATO</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>DISCIPLINA</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>TIPO DE DOCUMENTO</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>PROPÓSITO</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>CAMINHO DATABOOK</t>
         </is>

--- a/tests/fixtures/template_exemplo.xlsx
+++ b/tests/fixtures/template_exemplo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,13 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FIM</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
